--- a/Clean-600.xlsx
+++ b/Clean-600.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.195491768603836E-07</v>
+        <v>2.226666551513328E-07</v>
       </c>
       <c r="D2">
-        <v>1.257924122967126E-05</v>
+        <v>1.27578595784663E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>1.789135843680589E-07</v>
+        <v>1.834198457561646E-07</v>
       </c>
       <c r="D3">
-        <v>1.025099328184756E-05</v>
+        <v>1.050918304076878E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.400424115971787E-07</v>
+        <v>1.456282278838238E-07</v>
       </c>
       <c r="D4">
-        <v>8.023839137352274E-06</v>
+        <v>8.343882835712473E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>8.505051123676433E-08</v>
+        <v>9.170559545095989E-08</v>
       </c>
       <c r="D5">
-        <v>4.873035339296579E-06</v>
+        <v>5.254343577074123E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.002961219775272E-08</v>
+        <v>1.717355779890721E-08</v>
       </c>
       <c r="D6">
-        <v>5.746544490841608E-07</v>
+        <v>9.839723811013628E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-8.563242863226009E-08</v>
+        <v>-7.98543047223388E-08</v>
       </c>
       <c r="D7">
-        <v>-4.906376750083732E-06</v>
+        <v>-4.575314636541613E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-1.899278093436168E-07</v>
+        <v>-1.895916285452482E-07</v>
       </c>
       <c r="D8">
-        <v>-1.08820618875546E-05</v>
+        <v>-1.086280014665475E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-2.490540451860956E-07</v>
+        <v>-2.564590101057683E-07</v>
       </c>
       <c r="D9">
-        <v>-1.426974565982378E-05</v>
+        <v>-1.469401889716345E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-2.623999557202408E-07</v>
+        <v>-2.775169625269559E-07</v>
       </c>
       <c r="D10">
-        <v>-1.503441000718948E-05</v>
+        <v>-1.59005506960848E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-2.292379451846339E-07</v>
+        <v>-2.498551027636797E-07</v>
       </c>
       <c r="D11">
-        <v>-1.313436676333083E-05</v>
+        <v>-1.431564287816632E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.485388178702578E-07</v>
+        <v>-1.702731217494667E-07</v>
       </c>
       <c r="D12">
-        <v>-8.510647357828182E-06</v>
+        <v>-9.755931240761667E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-1.923629369313638E-08</v>
+        <v>-3.492820157971824E-08</v>
       </c>
       <c r="D13">
-        <v>-1.102158442090838E-06</v>
+        <v>-2.00123853650003E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.598126572793703E-07</v>
+        <v>1.609549105067044E-07</v>
       </c>
       <c r="D14">
-        <v>9.156590774878592E-06</v>
+        <v>9.222037063940031E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>3.906293420900125E-07</v>
+        <v>4.369295394440406E-07</v>
       </c>
       <c r="D15">
-        <v>2.238141265572977E-05</v>
+        <v>2.503421855473836E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>6.743356673847168E-07</v>
+        <v>7.876450295605034E-07</v>
       </c>
       <c r="D16">
-        <v>3.863658771628195E-05</v>
+        <v>4.512873594827381E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>1.019588613550802E-06</v>
+        <v>3.987274050857963E-06</v>
       </c>
       <c r="D17">
-        <v>5.841812439605607E-05</v>
+        <v>0.0002284539748761924</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.312208342557457E-06</v>
+        <v>9.691527096391747E-06</v>
       </c>
       <c r="D18">
-        <v>7.518399987039925E-05</v>
+        <v>0.0005552835996599245</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>1.634979639917071E-06</v>
+        <v>1.620370247540403E-05</v>
       </c>
       <c r="D19">
-        <v>9.367743295706722E-05</v>
+        <v>0.0009284037643263352</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>2.162347793640239E-06</v>
+        <v>2.685963014828572E-05</v>
       </c>
       <c r="D20">
-        <v>0.0001238934024150111</v>
+        <v>0.001538943446779117</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>3.049363333785127E-06</v>
+        <v>4.468498144283295E-05</v>
       </c>
       <c r="D21">
-        <v>0.0001747156492278303</v>
+        <v>0.002560260844294732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>7.538555088443255E-05</v>
+      </c>
+      <c r="D22">
+        <v>0.004319273901946695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>0.0001175433345244714</v>
+      </c>
+      <c r="D23">
+        <v>0.00673473697814659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>0.0001657328288190065</v>
+      </c>
+      <c r="D24">
+        <v>0.009495791618093214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>0.0002200278410820775</v>
+      </c>
+      <c r="D25">
+        <v>0.01260666666937823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>0.0002806402516485431</v>
+      </c>
+      <c r="D26">
+        <v>0.01607950198095087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>0.0002968109361691134</v>
+      </c>
+      <c r="D27">
+        <v>0.01700601395581707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>0.0003218257669159084</v>
+      </c>
+      <c r="D28">
+        <v>0.01843925818284251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>0.0003610589601227196</v>
+      </c>
+      <c r="D29">
+        <v>0.02068715457041413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>0.0003638139846413716</v>
+      </c>
+      <c r="D30">
+        <v>0.02084500584778795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>0.0003691232452678055</v>
+      </c>
+      <c r="D31">
+        <v>0.02114920407401759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>0.000379669812346758</v>
+      </c>
+      <c r="D32">
+        <v>0.02175347785599319</v>
       </c>
     </row>
   </sheetData>
